--- a/docs/协商.xlsx
+++ b/docs/协商.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="功能一览" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="162">
   <si>
     <t>Android、IOS各对应一个机型一个分辨率，适当考虑其他机型分辨率适配情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,219 +214,405 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1周后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2周后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3周后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4周后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5周后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6周后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7周后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主流机器上支持10TPS（双核4G内存，1000以下用户，10并发用户）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>式样接收、开发环境构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双核2.7G，4G内存，5000以下注册用户，50请求/秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付接入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端显示框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录、登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买手注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页订单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单一览（已完成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单一览（已完成）查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详细（已完成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清单一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已发布的订单一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的预购订单一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成订单一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的代购订单一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代购已完成订单一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建订单-类型选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建订单-内容填写（类型相关字段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详细查看（左右滑动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详细-发布中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详细-代购中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详细-支付转运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详细-收货中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详细-完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的账本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日汇率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清关单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于</t>
+  </si>
+  <si>
+    <t>原型构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码；我的账本；私信；我的；设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录、登出；权限控制；用户注册；买手注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架基础搭建，客户端显示框架；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>及时测试，支付功能完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付功能联测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8周后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>7周前</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1周后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2周后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3周后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4周后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5周后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6周后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7周后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主流机器上支持10TPS（双核4G内存，1000以下用户，10并发用户）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>式样接收、开发环境构建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>框架基础搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双核2.7G，4G内存，5000以下注册用户，50请求/秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付接入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端显示框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录、登出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>8周前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式环境构建、测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单、清单、后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看原型，及时验证，如需变更及时提出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家注册</t>
+  </si>
+  <si>
+    <t>买手注册</t>
+  </si>
+  <si>
+    <t>登陆</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>订单检索条件</t>
+  </si>
+  <si>
+    <t>订单一览</t>
+  </si>
+  <si>
+    <t>订单详细-我也想买</t>
+  </si>
+  <si>
+    <t>清单一览</t>
+  </si>
+  <si>
+    <t>已发布的订单</t>
+  </si>
+  <si>
+    <t>我的预购订单</t>
+  </si>
+  <si>
+    <t>发布订单</t>
+  </si>
+  <si>
+    <t>发布时显示的买家、买手权利、义务</t>
+  </si>
+  <si>
+    <t>已完成的订单</t>
+  </si>
+  <si>
+    <t>我的代购订单</t>
+  </si>
+  <si>
+    <t>清关单</t>
+  </si>
+  <si>
+    <t>代购已完成的订单</t>
+  </si>
+  <si>
+    <t>创建订单-类型选择</t>
+  </si>
+  <si>
+    <t>创建订单-详细</t>
+  </si>
+  <si>
+    <t>修改订单-详细</t>
+  </si>
+  <si>
+    <t>订单详细-买家-选择买手</t>
+  </si>
+  <si>
+    <t>订单详细-买家-代购中-等待买手开始购买</t>
+  </si>
+  <si>
+    <t>订单详细-买家-代购中-等待买手购买结束</t>
+  </si>
+  <si>
+    <t>订单详细-买家-代购中-查看买手上传的图片</t>
+  </si>
+  <si>
+    <t>订单详细-买家-平台转运</t>
+  </si>
+  <si>
+    <t>订单详细-买家-收货中</t>
+  </si>
+  <si>
+    <t>订单详细-买手-提交意向</t>
+  </si>
+  <si>
+    <t>订单详细-买手-提交意向-确认</t>
+  </si>
+  <si>
+    <t>订单详细-买手-竞标失败</t>
+  </si>
+  <si>
+    <t>订单详细-买手-开始购买</t>
+  </si>
+  <si>
+    <t>订单详细-买手-购买结束</t>
+  </si>
+  <si>
+    <t>地理信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详细-买手-平台转运</t>
+  </si>
+  <si>
+    <t>订单详细-买手-收货中-发货</t>
+  </si>
+  <si>
+    <t>订单详细-买手-收货中-等待买家确认收货</t>
+  </si>
+  <si>
+    <t>订单详细-完成</t>
+  </si>
+  <si>
+    <t>私信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>我的账本</t>
+  </si>
+  <si>
+    <t>账单明细</t>
+  </si>
+  <si>
+    <t>提现</t>
+  </si>
+  <si>
+    <t>今日汇率</t>
+  </si>
+  <si>
+    <t>关于我们</t>
+  </si>
+  <si>
+    <t>服务条款</t>
+  </si>
+  <si>
+    <t>买家、买手权利、义务</t>
+  </si>
+  <si>
+    <t>支付页面</t>
+  </si>
+  <si>
+    <t>订单详细依据不同类型显示不同字段</t>
   </si>
   <si>
     <t>权限控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买手注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页订单查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单一览（已完成）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单一览（已完成）查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详细（已完成）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清单一览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单一览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已发布的订单一览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的预购订单一览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成订单一览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的代购订单一览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代购已完成订单一览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建订单-类型选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建订单-内容填写（类型相关字段）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详细查看（左右滑动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详细-发布中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详细-代购中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详细-支付转运费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详细-收货中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详细-完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>私信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的账本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日汇率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端显示框架；登录、登出；权限控制；用户注册；买手注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页；首页订单查询；订单一览（已完成）；订单一览（已完成）查询；订单详细（已完成）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清单一览；新建订单-类型选择；新建订单-内容填写（类型相关字段）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已发布的订单一览；我的预购订单一览；已完成订单一览；我的代购订单一览；代购已完成订单一览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详细-发布中；订单详细-代购中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详细-支付转运费；订单详细-收货中；订单详细-完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>私信；我的；设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码；我的账本；关于</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清关单</t>
+  </si>
+  <si>
+    <t>本地图片导入</t>
+  </si>
+  <si>
+    <t>拍照</t>
+  </si>
+  <si>
+    <t>定位</t>
+  </si>
+  <si>
+    <t>配合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细化设计内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +620,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +632,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -470,7 +663,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -530,11 +723,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -547,9 +820,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -567,6 +837,103 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,74 +941,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -811,7 +1110,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1090,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P124"/>
+  <dimension ref="B2:P125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1159,10 +1458,10 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1276,16 +1575,16 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>60000</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="H16" s="10">
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="H16" s="9">
         <v>40000</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
@@ -1411,369 +1710,421 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D68" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+    </row>
+    <row r="69" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D69" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" s="23"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="H69" s="32"/>
+      <c r="I69" s="33"/>
+    </row>
+    <row r="70" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="23"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="36"/>
+    </row>
+    <row r="71" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D71" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H71" s="13"/>
+      <c r="I71" s="14"/>
+    </row>
+    <row r="72" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-    </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="D72" s="28"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="17"/>
+    </row>
+    <row r="73" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D73" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="26"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="20"/>
+    </row>
+    <row r="74" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+      <c r="D74" s="37"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H74" s="13"/>
+      <c r="I74" s="14"/>
+    </row>
+    <row r="75" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D75" s="37"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="17"/>
+    </row>
+    <row r="76" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-    </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="D76" s="37"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-    </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D77" s="37"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="17"/>
+    </row>
+    <row r="78" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="D78" s="28"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="20"/>
+    </row>
+    <row r="79" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="23"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+    </row>
+    <row r="80" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E80" s="23"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H80" s="13"/>
+      <c r="I80" s="14"/>
+    </row>
+    <row r="81" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-    </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C80" s="5" t="s">
+      <c r="D81" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E81" s="23"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="17"/>
+    </row>
+    <row r="82" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D82" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E82" s="26"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="20"/>
+    </row>
+    <row r="83" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C81" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C82" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-    </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C85" t="s">
-        <v>61</v>
-      </c>
+      <c r="D83" s="37"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H83" s="13"/>
+      <c r="I83" s="14"/>
+    </row>
+    <row r="84" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D84" s="28"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="20"/>
+    </row>
+    <row r="85" spans="3:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="40"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C86" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C87" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C88" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C89" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C90" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C92" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C91" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C93" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C94" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C95" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C96" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C98" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C97" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C99" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C101" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C100" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C102" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C103" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C104" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C105" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C106" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C107" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C108" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C109" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C111" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C112" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C113" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C115" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C117" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C114" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C116" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C118" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C119" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C120" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C121" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C122" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C123" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C121" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C122" t="s">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C125" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C124" t="s">
-        <v>102</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="D82:F84"/>
+    <mergeCell ref="G69:I70"/>
+    <mergeCell ref="G83:I84"/>
+    <mergeCell ref="D71:F72"/>
+    <mergeCell ref="G71:I73"/>
+    <mergeCell ref="D73:F78"/>
+    <mergeCell ref="G74:I78"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="G80:I82"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D70:I71"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D82:I82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1783,6 +2134,455 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="36.625" style="43" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="43">
+        <v>3</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="43">
+        <f>COUNTA(A1:A58)</f>
+        <v>52</v>
+      </c>
+      <c r="B60" s="43">
+        <f>SUM(B1:B58)</f>
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1797,17 +2597,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>